--- a/03.crawler/03.eBay/file/5.collate/crawler_2-vehicle.xlsx
+++ b/03.crawler/03.eBay/file/5.collate/crawler_2-vehicle.xlsx
@@ -631,195 +631,235 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{"page": 12, "market_place_id": "EBAY-DE", "item_id": "301791991081", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 13, "market_place_id": "EBAY-DE", "item_id": "373222887187", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Seat Leon 1999-2006
-Seat Toledo II 1998-2006
-Skoda Octavia I 1996-2010
-Skoda Octavia I Combi 1998-2010
-VW Bora 1998-2005
-VW Bora Variant 1999-2005
-VW Golf IV 1997-2005
-VW Golf IV Variant 1999-2006
-VW Passat 1996-2005
-VW Passat Variant 1997-2005</t>
+          <t>Seat Altea 2004-2015
+Seat Toledo III 2004-2009
+Skoda Octavia II 2004-2013
+Skoda Octavia II Combi 2004-2013
+VW Caddy III Großraumlimousine 2004-2015
+VW Caddy III Kasten/Großraumlimousine 2004-2015
+VW Golf Plus 2004-2013
+VW Golf V 2003-2009
+VW Golf V Variant 2007-2009
+VW Golf VI Variant 2009-2013
+VW Golf Van VI Variant 2009-2014
+VW Jetta III 2004-2010
+VW Phaeton 2002-2016
+VW Touareg 2002-2010
+VW Touran 2003-2015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Seat Leon 1999-2006 1390 ccm, 55 KW, 75 PS
-Seat Leon 1999-2006 1595 ccm, 74 KW, 100 PS
-Seat Leon 1999-2006 1781 ccm, 132 KW, 180 PS
-Seat Leon 1999-2006 1781 ccm, 92 KW, 125 PS
-Seat Leon 1999-2006 1896 ccm, 50 KW, 68 PS
-Seat Leon 1999-2006 1896 ccm, 66 KW, 90 PS
-Seat Leon 1999-2006 1896 ccm, 81 KW, 110 PS
-Seat Leon 2000-2006 1598 ccm, 77 KW, 105 PS
-Seat Leon 2001-2006 2792 ccm, 150 KW, 204 PS
-Seat Leon 2002-2006 1781 ccm, 154 KW, 209 PS
-Seat Toledo II 1998-2000 2324 ccm, 110 KW, 150 PS
-Seat Toledo II 1998-2004 1595 ccm, 74 KW, 100 PS
-Seat Toledo II 1998-2004 1781 ccm, 92 KW, 125 PS
-Seat Toledo II 1998-2004 1896 ccm, 81 KW, 110 PS
-Seat Toledo II 1999-2004 1896 ccm, 66 KW, 90 PS
-Seat Toledo II 2000-2002 1390 ccm, 55 KW, 75 PS
-Seat Toledo II 2000-2003 2324 ccm, 125 KW, 170 PS
-Seat Toledo II 2000-2004 1781 ccm, 132 KW, 180 PS
-Seat Toledo II 2000-2004 1896 ccm, 110 KW, 150 PS
-Seat Toledo II 2000-2006 1598 ccm, 77 KW, 105 PS
-Skoda Octavia I 1996-2000 1781 ccm, 92 KW, 125 PS
-Skoda Octavia I 1996-2004 1598 ccm, 55 KW, 75 PS
-Skoda Octavia I 1996-2010 1896 ccm, 66 KW, 90 PS
-Skoda Octavia I 1997-2003 1896 ccm, 50 KW, 68 PS
-Skoda Octavia I 1997-2006 1896 ccm, 81 KW, 110 PS
-Skoda Octavia I 1997-2007 1595 ccm, 74 KW, 101 PS
-Skoda Octavia I 1997-2010 1781 ccm, 110 KW, 150 PS
-Skoda Octavia I 1999-2001 1397 ccm, 44 KW, 60 PS
-Skoda Octavia I 1999-2007 1984 ccm, 85 KW, 116 PS
-Skoda Octavia I 2000-2010 1390 ccm, 55 KW, 75 PS
-Skoda Octavia I 2000-2010 1595 ccm, 75 KW, 102 PS
-Skoda Octavia I 2001-2006 1781 ccm, 132 KW, 180 PS
-Skoda Octavia I 2002-2004 1896 ccm, 96 KW, 130 PS
-Skoda Octavia I 2005-2010 1896 ccm, 74 KW, 100 PS
-Skoda Octavia I Combi 1998-2000 1781 ccm, 92 KW, 125 PS
-Skoda Octavia I Combi 1998-2003 1896 ccm, 50 KW, 68 PS
-Skoda Octavia I Combi 1998-2004 1598 ccm, 55 KW, 75 PS
-Skoda Octavia I Combi 1998-2006 1896 ccm, 81 KW, 110 PS
-Skoda Octavia I Combi 1998-2007 1595 ccm, 74 KW, 101 PS
-Skoda Octavia I Combi 1998-2010 1781 ccm, 110 KW, 150 PS
-Skoda Octavia I Combi 1998-2010 1896 ccm, 66 KW, 90 PS
-Skoda Octavia I Combi 1999-2007 1984 ccm, 85 KW, 116 PS
-Skoda Octavia I Combi 2000-2010 1390 ccm, 55 KW, 75 PS
-Skoda Octavia I Combi 2000-2010 1595 ccm, 75 KW, 102 PS
-Skoda Octavia I Combi 2000-2010 1896 ccm, 74 KW, 100 PS
-Skoda Octavia I Combi 2000-2010 1984 ccm, 88 KW, 120 PS
-Skoda Octavia I Combi 2002-2004 1896 ccm, 96 KW, 130 PS
-Skoda Octavia I Combi 2002-2006 1781 ccm, 132 KW, 180 PS
-VW Bora 1998-2000 2324 ccm, 110 KW, 150 PS
-VW Bora 1998-2001 1896 ccm, 81 KW, 110 PS
-VW Bora 1998-2002 1896 ccm, 85 KW, 115 PS
-VW Bora 1998-2005 1595 ccm, 74 KW, 101 PS
-VW Bora 1998-2005 1781 ccm, 92 KW, 125 PS
-VW Bora 1998-2005 1896 ccm, 50 KW, 68 PS
-VW Bora 1998-2005 1896 ccm, 66 KW, 90 PS
-VW Bora 1999-2005 2792 ccm, 150 KW, 204 PS
-VW Bora 2000-2005 1390 ccm, 55 KW, 75 PS
-VW Bora 2000-2005 1595 ccm, 75 KW, 102 PS
-VW Bora 2000-2005 1598 ccm, 77 KW, 105 PS
-VW Bora 2000-2005 1781 ccm, 110 KW, 150 PS
-VW Bora 2000-2005 1896 ccm, 110 KW, 150 PS
-VW Bora 2000-2005 1896 ccm, 74 KW, 101 PS
-VW Bora 2000-2005 1896 ccm, 96 KW, 130 PS
-VW Bora 2000-2005 1984 ccm, 85 KW, 115 PS
-VW Bora 2000-2005 2324 ccm, 125 KW, 170 PS
-VW Bora 2002-2005 1598 ccm, 81 KW, 110 PS
-VW Bora 2002-2005 1781 ccm, 132 KW, 180 PS
-VW Bora Variant 1999-2000 2324 ccm, 110 KW, 150 PS
-VW Bora Variant 1999-2001 1896 ccm, 81 KW, 110 PS
-VW Bora Variant 1999-2001 1896 ccm, 85 KW, 115 PS
-VW Bora Variant 1999-2005 1595 ccm, 74 KW, 100 PS
-VW Bora Variant 1999-2005 1781 ccm, 92 KW, 125 PS
-VW Bora Variant 1999-2005 2792 ccm, 150 KW, 204 PS
-VW Bora Variant 2000-2005 1595 ccm, 75 KW, 102 PS
-VW Bora Variant 2000-2005 1598 ccm, 77 KW, 105 PS
-VW Bora Variant 2000-2005 1781 ccm, 110 KW, 150 PS
-VW Bora Variant 2000-2005 1896 ccm, 74 KW, 101 PS
-VW Bora Variant 2000-2005 1896 ccm, 96 KW, 130 PS
-VW Bora Variant 2000-2005 1984 ccm, 85 KW, 115 PS
-VW Bora Variant 2000-2005 2324 ccm, 125 KW, 170 PS
-VW Bora Variant 2001-2005 1390 ccm, 55 KW, 75 PS
-VW Bora Variant 2001-2005 1896 ccm, 110 KW, 150 PS
-VW Bora Variant 2002-2005 1598 ccm, 81 KW, 110 PS
-VW Bora Variant 2002-2005 1781 ccm, 132 KW, 180 PS
-VW Bora Variant 2004-2005 1896 ccm, 66 KW, 90 PS
-VW Golf IV 1997-2000 2324 ccm, 110 KW, 150 PS
-VW Golf IV 1997-2004 1390 ccm, 55 KW, 75 PS
-VW Golf IV 1997-2004 1595 ccm, 74 KW, 100 PS
-VW Golf IV 1997-2004 1896 ccm, 66 KW, 90 PS
-VW Golf IV 1997-2004 1896 ccm, 81 KW, 110 PS
-VW Golf IV 1997-2005 1781 ccm, 110 KW, 150 PS
-VW Golf IV 1997-2005 1781 ccm, 92 KW, 125 PS
-VW Golf IV 1997-2005 1896 ccm, 50 KW, 68 PS
-VW Golf IV 1998-2001 1896 ccm, 85 KW, 115 PS
-VW Golf IV 1999-2005 2792 ccm, 150 KW, 204 PS
-VW Golf IV 2000-2005 1595 ccm, 75 KW, 102 PS
-VW Golf IV 2000-2005 1598 ccm, 77 KW, 105 PS
-VW Golf IV 2000-2005 1896 ccm, 110 KW, 150 PS
-VW Golf IV 2000-2005 1896 ccm, 74 KW, 101 PS
-VW Golf IV 2000-2005 1896 ccm, 96 KW, 130 PS
-VW Golf IV 2000-2005 1984 ccm, 85 KW, 115 PS
-VW Golf IV 2000-2005 2324 ccm, 125 KW, 170 PS
-VW Golf IV 2001-2005 1781 ccm, 132 KW, 180 PS
-VW Golf IV 2002-2003 1984 ccm, 85 KW, 116 PS
-VW Golf IV 2002-2005 1598 ccm, 81 KW, 110 PS
-VW Golf IV Variant 1999-2001 1896 ccm, 81 KW, 110 PS
-VW Golf IV Variant 1999-2001 1896 ccm, 85 KW, 115 PS
-VW Golf IV Variant 1999-2002 1595 ccm, 74 KW, 101 PS
-VW Golf IV Variant 1999-2006 1781 ccm, 92 KW, 125 PS
-VW Golf IV Variant 1999-2006 1896 ccm, 50 KW, 68 PS
-VW Golf IV Variant 1999-2006 1896 ccm, 66 KW, 90 PS
-VW Golf IV Variant 1999-2006 1984 ccm, 85 KW, 115 PS
-VW Golf IV Variant 1999-2006 2324 ccm, 110 KW, 150 PS
-VW Golf IV Variant 1999-2006 2792 ccm, 150 KW, 204 PS
-VW Golf IV Variant 2000-2006 1595 ccm, 75 KW, 102 PS
-VW Golf IV Variant 2000-2006 1598 ccm, 77 KW, 105 PS
-VW Golf IV Variant 2000-2006 1781 ccm, 110 KW, 150 PS
-VW Golf IV Variant 2000-2006 1896 ccm, 74 KW, 101 PS
-VW Golf IV Variant 2000-2006 1896 ccm, 96 KW, 130 PS
-VW Golf IV Variant 2000-2006 2324 ccm, 125 KW, 170 PS
-VW Golf IV Variant 2001-2006 1896 ccm, 110 KW, 150 PS
-VW Golf IV Variant 2002-2006 1598 ccm, 81 KW, 110 PS
-VW Golf IV Variant 2002-2006 1984 ccm, 85 KW, 116 PS
-VW Passat 1996-2000 1595 ccm, 74 KW, 101 PS
-VW Passat 1996-2000 1781 ccm, 92 KW, 125 PS
-VW Passat 1996-2000 1896 ccm, 66 KW, 90 PS
-VW Passat 1996-2000 1896 ccm, 81 KW, 110 PS
-VW Passat 1996-2000 2324 ccm, 110 KW, 150 PS
-VW Passat 1996-2005 1781 ccm, 110 KW, 150 PS
-VW Passat 1996-2005 2771 ccm, 142 KW, 193 PS
-VW Passat 1997-1999 2771 ccm, 132 KW, 180 PS
-VW Passat 1998-2000 1896 ccm, 85 KW, 115 PS
-VW Passat 1998-2005 2496 ccm, 110 KW, 150 PS
-VW Passat 2000 1984 ccm, 88 KW, 120 PS
-VW Passat 2000-2005 1595 ccm, 75 KW, 102 PS
-VW Passat 2000-2005 1896 ccm, 74 KW, 101 PS
-VW Passat 2000-2005 1896 ccm, 96 KW, 130 PS
-VW Passat 2000-2005 1984 ccm, 85 KW, 115 PS
-VW Passat 2000-2005 2324 ccm, 125 KW, 170 PS
-VW Passat 2001-2005 1984 ccm, 96 KW, 130 PS
-VW Passat 2003-2005 1968 ccm, 100 KW, 136 PS
-VW Passat 2003-2005 2496 ccm, 120 KW, 163 PS
-VW Passat 2003-2005 2496 ccm, 132 KW, 180 PS
-VW Passat Variant 1997-2000 1595 ccm, 74 KW, 101 PS
-VW Passat Variant 1997-2000 1781 ccm, 92 KW, 125 PS
-VW Passat Variant 1997-2000 1896 ccm, 66 KW, 90 PS
-VW Passat Variant 1997-2000 1896 ccm, 81 KW, 110 PS
-VW Passat Variant 1997-2000 2324 ccm, 110 KW, 150 PS
-VW Passat Variant 1997-2005 1781 ccm, 110 KW, 150 PS
-VW Passat Variant 1997-2005 2771 ccm, 142 KW, 193 PS
-VW Passat Variant 1998-2000 1896 ccm, 85 KW, 115 PS
-VW Passat Variant 1998-2005 2496 ccm, 110 KW, 150 PS
-VW Passat Variant 2000 1984 ccm, 88 KW, 120 PS
-VW Passat Variant 2000-2005 1595 ccm, 75 KW, 102 PS
-VW Passat Variant 2000-2005 1896 ccm, 74 KW, 101 PS
-VW Passat Variant 2000-2005 1896 ccm, 96 KW, 130 PS
-VW Passat Variant 2000-2005 1984 ccm, 85 KW, 115 PS
-VW Passat Variant 2000-2005 2324 ccm, 125 KW, 170 PS
-VW Passat Variant 2000-2005 2771 ccm, 140 KW, 190 PS
-VW Passat Variant 2001-2005 1984 ccm, 96 KW, 130 PS
-VW Passat Variant 2003-2005 1968 ccm, 100 KW, 136 PS
-VW Passat Variant 2003-2005 2496 ccm, 120 KW, 163 PS
-VW Passat Variant 2003-2005 2496 ccm, 132 KW, 180 PS</t>
+          <t>Seat Altea 2004-2009 1968 ccm, 100 KW, 136 PS
+Seat Altea 2004-2009 1984 ccm, 110 KW, 150 PS
+Seat Altea 2004-2010 1595 ccm, 75 KW, 102 PS
+Seat Altea 2004-2010 1896 ccm, 77 KW, 105 PS
+Seat Altea 2004-2015 1968 ccm, 103 KW, 140 PS
+Seat Altea 2006-2009 1984 ccm, 147 KW, 200 PS
+Seat Altea 2006-2010 1968 ccm, 125 KW, 170 PS
+Seat Toledo III 2004-2009 1595 ccm, 75 KW, 102 PS
+Seat Toledo III 2004-2009 1896 ccm, 77 KW, 105 PS
+Seat Toledo III 2004-2009 1968 ccm, 100 KW, 136 PS
+Seat Toledo III 2004-2009 1968 ccm, 103 KW, 140 PS
+Seat Toledo III 2004-2009 1984 ccm, 110 KW, 150 PS
+Seat Toledo III 2005-2009 1984 ccm, 147 KW, 200 PS
+Seat Toledo III 2006-2009 1390 ccm, 63 KW, 86 PS
+Seat Toledo III 2006-2009 1968 ccm, 125 KW, 170 PS
+Seat Toledo III 2007-2009 1390 ccm, 92 KW, 125 PS
+Seat Toledo III 2007-2009 1798 ccm, 118 KW, 160 PS
+Skoda Octavia II 2004-2006 1390 ccm, 55 KW, 75 PS
+Skoda Octavia II 2004-2008 1598 ccm, 85 KW, 115 PS
+Skoda Octavia II 2004-2008 1984 ccm, 110 KW, 150 PS
+Skoda Octavia II 2004-2010 1896 ccm, 77 KW, 105 PS
+Skoda Octavia II 2004-2010 1968 ccm, 100 KW, 136 PS
+Skoda Octavia II 2004-2013 1390 ccm, 59 KW, 80 PS
+Skoda Octavia II 2004-2013 1595 ccm, 75 KW, 102 PS
+Skoda Octavia II 2004-2013 1968 ccm, 103 KW, 140 PS
+Skoda Octavia II 2005-2013 1984 ccm, 147 KW, 200 PS
+Skoda Octavia II 2006-2013 1968 ccm, 125 KW, 170 PS
+Skoda Octavia II 2007-2013 1798 ccm, 118 KW, 160 PS
+Skoda Octavia II 2008-2013 1390 ccm, 90 KW, 122 PS
+Skoda Octavia II 2009-2013 1598 ccm, 77 KW, 105 PS
+Skoda Octavia II 2009-2013 1798 ccm, 112 KW, 152 PS
+Skoda Octavia II 2010-2013 1197 ccm, 77 KW, 105 PS
+Skoda Octavia II 2010-2013 1968 ccm, 81 KW, 110 PS
+Skoda Octavia II Combi 2004-2006 1390 ccm, 55 KW, 75 PS
+Skoda Octavia II Combi 2004-2008 1598 ccm, 85 KW, 115 PS
+Skoda Octavia II Combi 2004-2009 1984 ccm, 110 KW, 150 PS
+Skoda Octavia II Combi 2004-2010 1896 ccm, 77 KW, 105 PS
+Skoda Octavia II Combi 2004-2010 1968 ccm, 100 KW, 136 PS
+Skoda Octavia II Combi 2004-2013 1595 ccm, 75 KW, 102 PS
+Skoda Octavia II Combi 2004-2013 1968 ccm, 103 KW, 140 PS
+Skoda Octavia II Combi 2005-2013 1984 ccm, 147 KW, 200 PS
+Skoda Octavia II Combi 2006-2013 1390 ccm, 59 KW, 80 PS
+Skoda Octavia II Combi 2006-2013 1968 ccm, 125 KW, 170 PS
+Skoda Octavia II Combi 2007-2013 1798 ccm, 118 KW, 160 PS
+Skoda Octavia II Combi 2008-2013 1390 ccm, 90 KW, 122 PS
+Skoda Octavia II Combi 2009-2013 1598 ccm, 77 KW, 105 PS
+Skoda Octavia II Combi 2009-2013 1798 ccm, 112 KW, 152 PS
+Skoda Octavia II Combi 2010-2013 1197 ccm, 77 KW, 105 PS
+Skoda Octavia II Combi 2010-2013 1968 ccm, 81 KW, 110 PS
+VW Caddy III Großraumlimousine 2004-2006 1390 ccm, 55 KW, 75 PS
+VW Caddy III Großraumlimousine 2004-2010 1896 ccm, 77 KW, 105 PS
+VW Caddy III Großraumlimousine 2004-2010 1968 ccm, 51 KW, 70 PS
+VW Caddy III Großraumlimousine 2004-2015 1595 ccm, 75 KW, 102 PS
+VW Caddy III Großraumlimousine 2005-2010 1896 ccm, 55 KW, 75 PS
+VW Caddy III Großraumlimousine 2006-2010 1390 ccm, 59 KW, 80 PS
+VW Caddy III Großraumlimousine 2006-2015 1984 ccm, 80 KW, 109 PS
+VW Caddy III Großraumlimousine 2007-2015 1968 ccm, 103 KW, 140 PS
+VW Caddy III Großraumlimousine 2010-2015 1197 ccm, 63 KW, 86 PS
+VW Caddy III Großraumlimousine 2010-2015 1197 ccm, 77 KW, 105 PS
+VW Caddy III Großraumlimousine 2010-2015 1598 ccm, 55 KW, 75 PS
+VW Caddy III Großraumlimousine 2010-2015 1598 ccm, 75 KW, 102 PS
+VW Caddy III Großraumlimousine 2010-2015 1968 ccm, 81 KW, 110 PS
+VW Caddy III Großraumlimousine 2012-2015 1968 ccm, 125 KW, 170 PS
+VW Caddy III Kasten/Großraumlimousine 2004-2006 1390 ccm, 55 KW, 75 PS
+VW Caddy III Kasten/Großraumlimousine 2004-2010 1896 ccm, 77 KW, 105 PS
+VW Caddy III Kasten/Großraumlimousine 2004-2010 1968 ccm, 51 KW, 70 PS
+VW Caddy III Kasten/Großraumlimousine 2004-2015 1595 ccm, 75 KW, 102 PS
+VW Caddy III Kasten/Großraumlimousine 2005-2010 1896 ccm, 55 KW, 75 PS
+VW Caddy III Kasten/Großraumlimousine 2006-2010 1390 ccm, 59 KW, 80 PS
+VW Caddy III Kasten/Großraumlimousine 2006-2015 1984 ccm, 80 KW, 109 PS
+VW Caddy III Kasten/Großraumlimousine 2007-2015 1968 ccm, 103 KW, 140 PS
+VW Caddy III Kasten/Großraumlimousine 2010-2015 1197 ccm, 63 KW, 86 PS
+VW Caddy III Kasten/Großraumlimousine 2010-2015 1197 ccm, 77 KW, 105 PS
+VW Caddy III Kasten/Großraumlimousine 2010-2015 1598 ccm, 55 KW, 75 PS
+VW Caddy III Kasten/Großraumlimousine 2010-2015 1598 ccm, 75 KW, 102 PS
+VW Caddy III Kasten/Großraumlimousine 2010-2015 1968 ccm, 62 KW, 85 PS
+VW Caddy III Kasten/Großraumlimousine 2010-2015 1968 ccm, 81 KW, 110 PS
+VW Caddy III Kasten/Großraumlimousine 2012-2015 1968 ccm, 125 KW, 170 PS
+VW Golf Plus 2004-2008 1598 ccm, 85 KW, 115 PS
+VW Golf Plus 2005-2006 1390 ccm, 55 KW, 75 PS
+VW Golf Plus 2005-2006 1390 ccm, 66 KW, 90 PS
+VW Golf Plus 2005-2007 1968 ccm, 96 KW, 131 PS
+VW Golf Plus 2005-2008 1896 ccm, 66 KW, 90 PS
+VW Golf Plus 2005-2008 1984 ccm, 110 KW, 150 PS
+VW Golf Plus 2005-2009 1896 ccm, 77 KW, 105 PS
+VW Golf Plus 2005-2013 1595 ccm, 75 KW, 102 PS
+VW Golf Plus 2005-2013 1968 ccm, 100 KW, 136 PS
+VW Golf Plus 2005-2013 1968 ccm, 103 KW, 140 PS
+VW Golf Plus 2006-2008 1390 ccm, 103 KW, 140 PS
+VW Golf Plus 2006-2008 1390 ccm, 125 KW, 170 PS
+VW Golf Plus 2006-2013 1390 ccm, 59 KW, 80 PS
+VW Golf Plus 2007-2013 1390 ccm, 90 KW, 122 PS
+VW Golf Plus 2008-2013 1390 ccm, 118 KW, 160 PS
+VW Golf Plus 2009-2013 1197 ccm, 77 KW, 105 PS
+VW Golf Plus 2009-2013 1598 ccm, 66 KW, 90 PS
+VW Golf Plus 2009-2013 1598 ccm, 77 KW, 105 PS
+VW Golf Plus 2009-2013 1968 ccm, 81 KW, 110 PS
+VW Golf Plus 2010-2013 1197 ccm, 63 KW, 86 PS
+VW Golf V 2003-2006 1390 ccm, 55 KW, 75 PS
+VW Golf V 2003-2006 1390 ccm, 66 KW, 90 PS
+VW Golf V 2003-2008 1598 ccm, 85 KW, 115 PS
+VW Golf V 2003-2008 1896 ccm, 77 KW, 105 PS
+VW Golf V 2003-2008 1968 ccm, 100 KW, 136 PS
+VW Golf V 2003-2008 1968 ccm, 103 KW, 140 PS
+VW Golf V 2004-2008 1595 ccm, 75 KW, 102 PS
+VW Golf V 2004-2008 1896 ccm, 66 KW, 90 PS
+VW Golf V 2004-2008 1968 ccm, 55 KW, 75 PS
+VW Golf V 2004-2008 1984 ccm, 110 KW, 150 PS
+VW Golf V 2004-2009 1984 ccm, 147 KW, 200 PS
+VW Golf V 2005-2008 1390 ccm, 125 KW, 170 PS
+VW Golf V 2005-2008 1968 ccm, 125 KW, 170 PS
+VW Golf V 2005-2008 1984 ccm, 85 KW, 116 PS
+VW Golf V 2005-2008 3189 ccm, 184 KW, 250 PS
+VW Golf V 2006-2008 1390 ccm, 103 KW, 140 PS
+VW Golf V 2006-2008 1390 ccm, 59 KW, 80 PS
+VW Golf V 2006-2008 1984 ccm, 169 KW, 230 PS
+VW Golf V 2007-2008 1390 ccm, 90 KW, 122 PS
+VW Golf V Variant 2007-2009 1390 ccm, 103 KW, 140 PS
+VW Golf V Variant 2007-2009 1390 ccm, 125 KW, 170 PS
+VW Golf V Variant 2007-2009 1390 ccm, 59 KW, 80 PS
+VW Golf V Variant 2007-2009 1390 ccm, 90 KW, 122 PS
+VW Golf V Variant 2007-2009 1595 ccm, 75 KW, 102 PS
+VW Golf V Variant 2007-2009 1896 ccm, 77 KW, 105 PS
+VW Golf V Variant 2007-2009 1968 ccm, 100 KW, 136 PS
+VW Golf V Variant 2007-2009 1968 ccm, 103 KW, 140 PS
+VW Golf V Variant 2007-2009 1984 ccm, 147 KW, 200 PS
+VW Golf V Variant 2008-2009 1390 ccm, 118 KW, 160 PS
+VW Golf VI Variant 2009-2013 1197 ccm, 77 KW, 105 PS
+VW Golf VI Variant 2009-2013 1390 ccm, 118 KW, 160 PS
+VW Golf VI Variant 2009-2013 1390 ccm, 59 KW, 80 PS
+VW Golf VI Variant 2009-2013 1390 ccm, 90 KW, 122 PS
+VW Golf VI Variant 2009-2013 1595 ccm, 75 KW, 102 PS
+VW Golf VI Variant 2009-2013 1598 ccm, 66 KW, 90 PS
+VW Golf VI Variant 2009-2013 1598 ccm, 77 KW, 105 PS
+VW Golf VI Variant 2009-2013 1968 ccm, 100 KW, 136 PS
+VW Golf VI Variant 2009-2013 1968 ccm, 103 KW, 140 PS
+VW Golf VI Variant 2009-2013 1984 ccm, 147 KW, 200 PS
+VW Golf VI Variant 2010-2013 1197 ccm, 63 KW, 86 PS
+VW Golf VI Variant 2010-2013 1968 ccm, 81 KW, 110 PS
+VW Golf Van VI Variant 2009-2014 1598 ccm, 77 KW, 105 PS
+VW Jetta III 2004-2010 1595 ccm, 75 KW, 102 PS
+VW Jetta III 2005-2010 1598 ccm, 85 KW, 115 PS
+VW Jetta III 2005-2010 1896 ccm, 77 KW, 105 PS
+VW Jetta III 2005-2010 1968 ccm, 100 KW, 136 PS
+VW Jetta III 2005-2010 1968 ccm, 103 KW, 140 PS
+VW Jetta III 2005-2010 1984 ccm, 110 KW, 150 PS
+VW Jetta III 2005-2010 1984 ccm, 147 KW, 200 PS
+VW Jetta III 2006-2010 1390 ccm, 103 KW, 140 PS
+VW Jetta III 2006-2010 1390 ccm, 125 KW, 170 PS
+VW Jetta III 2006-2010 1968 ccm, 125 KW, 170 PS
+VW Jetta III 2006-2010 2480 ccm, 110 KW, 150 PS
+VW Jetta III 2007-2010 1390 ccm, 90 KW, 122 PS
+VW Jetta III 2008-2010 1390 ccm, 118 KW, 160 PS
+VW Jetta III 2008-2010 1984 ccm, 125 KW, 170 PS
+VW Jetta III 2008-2010 2480 ccm, 125 KW, 170 PS
+VW Jetta III 2009-2010 1598 ccm, 66 KW, 90 PS
+VW Jetta III 2009-2010 1598 ccm, 77 KW, 105 PS
+VW Phaeton 2002-2005 5998 ccm, 309 KW, 420 PS
+VW Phaeton 2002-2006 4921 ccm, 230 KW, 313 PS
+VW Phaeton 2002-2008 3189 ccm, 177 KW, 241 PS
+VW Phaeton 2003-2016 4172 ccm, 246 KW, 335 PS
+VW Phaeton 2004-2007 2967 ccm, 165 KW, 224 PS
+VW Phaeton 2005-2016 5998 ccm, 331 KW, 450 PS
+VW Phaeton 2007-2008 2967 ccm, 171 KW, 233 PS
+VW Phaeton 2008-2016 2967 ccm, 176 KW, 240 PS
+VW Phaeton 2008-2016 3597 ccm, 206 KW, 280 PS
+VW Phaeton 2013-2016 2967 ccm, 180 KW, 245 PS
+VW Touareg 2002-2006 3189 ccm, 162 KW, 220 PS
+VW Touareg 2002-2006 4172 ccm, 228 KW, 310 PS
+VW Touareg 2002-2010 4921 ccm, 230 KW, 313 PS
+VW Touareg 2003-2010 2461 ccm, 120 KW, 163 PS
+VW Touareg 2003-2010 2461 ccm, 128 KW, 174 PS
+VW Touareg 2004-2006 3189 ccm, 177 KW, 241 PS
+VW Touareg 2004-2010 2967 ccm, 165 KW, 225 PS
+VW Touareg 2004-2010 5998 ccm, 331 KW, 450 PS
+VW Touareg 2005-2010 3597 ccm, 206 KW, 280 PS
+VW Touareg 2006-2010 2967 ccm, 155 KW, 211 PS
+VW Touareg 2006-2010 4163 ccm, 257 KW, 350 PS
+VW Touareg 2007-2010 2967 ccm, 176 KW, 240 PS
+VW Touareg 2007-2010 4921 ccm, 257 KW, 350 PS
+VW Touran 2003-2004 1896 ccm, 74 KW, 100 PS
+VW Touran 2003-2007 1598 ccm, 85 KW, 115 PS
+VW Touran 2003-2007 1984 ccm, 110 KW, 150 PS
+VW Touran 2003-2010 1595 ccm, 75 KW, 102 PS
+VW Touran 2003-2010 1896 ccm, 77 KW, 105 PS
+VW Touran 2003-2010 1968 ccm, 100 KW, 136 PS
+VW Touran 2003-2015 1968 ccm, 103 KW, 140 PS
+VW Touran 2004-2010 1896 ccm, 66 KW, 90 PS
+VW Touran 2005-2013 1968 ccm, 125 KW, 170 PS
+VW Touran 2006-2009 1984 ccm, 80 KW, 109 PS
+VW Touran 2006-2015 1390 ccm, 103 KW, 140 PS
+VW Touran 2006-2015 1390 ccm, 125 KW, 170 PS
+VW Touran 2009-2015 1390 ccm, 110 KW, 150 PS
+VW Touran 2010-2015 1197 ccm, 77 KW, 105 PS
+VW Touran 2010-2015 1598 ccm, 66 KW, 90 PS
+VW Touran 2010-2015 1598 ccm, 77 KW, 105 PS
+VW Touran 2010-2015 1968 ccm, 81 KW, 110 PS
+VW Touran 2013-2015 1968 ccm, 130 KW, 177 PS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{"page": 13, "market_place_id": "EBAY-DE", "item_id": "373222887187", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 13, "market_place_id": "EBAY-DE", "item_id": "391077523166", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1565,10 +1605,157 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{"page": 5, "market_place_id": "EBAY-DE", "item_id": "371570167825", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 3, "market_place_id": "EBAY-DE", "item_id": "391626437939", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
+        <is>
+          <t>Seat Cordoba 2002-2009
+Seat Ibiza III 2002-2009
+VW Polo 2001-2009
+VW Polo Stufenheck 2003-2012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Seat Cordoba 2002-2005 1422 ccm, 55 KW, 75 PS
+Seat Cordoba 2002-2006 1198 ccm, 47 KW, 64 PS
+Seat Cordoba 2002-2007 1390 ccm, 55 KW, 75 PS
+Seat Cordoba 2002-2009 1390 ccm, 74 KW, 100 PS
+Seat Cordoba 2002-2009 1896 ccm, 47 KW, 64 PS
+Seat Cordoba 2002-2009 1896 ccm, 74 KW, 100 PS
+Seat Cordoba 2002-2009 1896 ccm, 96 KW, 131 PS
+Seat Cordoba 2002-2009 1984 ccm, 85 KW, 115 PS
+Seat Cordoba 2003-2009 1598 ccm, 74 KW, 101 PS
+Seat Cordoba 2005-2009 1422 ccm, 51 KW, 70 PS
+Seat Cordoba 2005-2009 1422 ccm, 59 KW, 80 PS
+Seat Cordoba 2006-2009 1198 ccm, 51 KW, 70 PS
+Seat Cordoba 2006-2009 1390 ccm, 63 KW, 86 PS
+Seat Cordoba 2006-2009 1598 ccm, 77 KW, 105 PS
+Seat Ibiza III 2002-2005 1422 ccm, 55 KW, 75 PS
+Seat Ibiza III 2002-2005 1896 ccm, 47 KW, 64 PS
+Seat Ibiza III 2002-2006 1198 ccm, 47 KW, 64 PS
+Seat Ibiza III 2002-2007 1390 ccm, 55 KW, 75 PS
+Seat Ibiza III 2002-2009 1390 ccm, 74 KW, 100 PS
+Seat Ibiza III 2002-2009 1896 ccm, 74 KW, 100 PS
+Seat Ibiza III 2002-2009 1896 ccm, 96 KW, 131 PS
+Seat Ibiza III 2002-2009 1984 ccm, 85 KW, 116 PS
+Seat Ibiza III 2003-2008 1781 ccm, 110 KW, 150 PS
+Seat Ibiza III 2003-2009 1598 ccm, 74 KW, 101 PS
+Seat Ibiza III 2004-2008 1781 ccm, 132 KW, 180 PS
+Seat Ibiza III 2004-2008 1896 ccm, 118 KW, 160 PS
+Seat Ibiza III 2005-2009 1422 ccm, 51 KW, 70 PS
+Seat Ibiza III 2005-2009 1422 ccm, 59 KW, 80 PS
+Seat Ibiza III 2006-2009 1198 ccm, 51 KW, 70 PS
+Seat Ibiza III 2006-2009 1390 ccm, 63 KW, 86 PS
+Seat Ibiza III 2006-2009 1598 ccm, 77 KW, 105 PS
+Seat Ibiza III 2007-2008 1198 ccm, 44 KW, 60 PS
+VW Polo 2001-2005 1422 ccm, 55 KW, 75 PS
+VW Polo 2001-2007 1198 ccm, 47 KW, 64 PS
+VW Polo 2001-2008 1390 ccm, 55 KW, 75 PS
+VW Polo 2001-2008 1390 ccm, 74 KW, 101 PS
+VW Polo 2001-2009 1896 ccm, 47 KW, 64 PS
+VW Polo 2001-2009 1896 ccm, 74 KW, 101 PS
+VW Polo 2002-2006 1390 ccm, 63 KW, 86 PS
+VW Polo 2002-2007 1198 ccm, 40 KW, 54 PS
+VW Polo 2003-2009 1896 ccm, 96 KW, 130 PS
+VW Polo 2005-2009 1422 ccm, 51 KW, 70 PS
+VW Polo 2005-2009 1422 ccm, 59 KW, 80 PS
+VW Polo 2005-2009 1781 ccm, 110 KW, 150 PS
+VW Polo 2006-2009 1390 ccm, 59 KW, 80 PS
+VW Polo 2006-2009 1598 ccm, 77 KW, 105 PS
+VW Polo 2006-2009 1781 ccm, 132 KW, 180 PS
+VW Polo 2007-2009 1198 ccm, 44 KW, 60 PS
+VW Polo 2007-2009 1198 ccm, 51 KW, 69 PS
+VW Polo Stufenheck 2003-2005 1390 ccm, 74 KW, 101 PS
+VW Polo Stufenheck 2003-2005 1422 ccm, 55 KW, 75 PS
+VW Polo Stufenheck 2006-2012 1390 ccm, 55 KW, 75 PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>{"page": 5, "market_place_id": "EBAY-DE", "item_id": "391247775443", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Audi A6 1997-2005
+Audi A6 Avant 1997-2005
+Audi Allroad 2000-2005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Audi A6 1997-2000 1896 ccm, 81 KW, 110 PS
+Audi A6 1997-2000 2771 ccm, 132 KW, 180 PS
+Audi A6 1997-2005 1781 ccm, 110 KW, 150 PS
+Audi A6 1997-2005 1781 ccm, 132 KW, 180 PS
+Audi A6 1997-2005 1781 ccm, 92 KW, 125 PS
+Audi A6 1997-2005 2393 ccm, 115 KW, 156 PS
+Audi A6 1997-2005 2393 ccm, 120 KW, 163 PS
+Audi A6 1997-2005 2393 ccm, 121 KW, 165 PS
+Audi A6 1997-2005 2496 ccm, 110 KW, 150 PS
+Audi A6 1997-2005 2671 ccm, 169 KW, 230 PS
+Audi A6 1997-2005 2771 ccm, 142 KW, 193 PS
+Audi A6 1998-2005 2393 ccm, 100 KW, 136 PS
+Audi A6 1998-2005 4172 ccm, 220 KW, 299 PS
+Audi A6 1999-2005 2771 ccm, 140 KW, 190 PS
+Audi A6 1999-2005 3697 ccm, 191 KW, 260 PS
+Audi A6 1999-2005 4172 ccm, 250 KW, 340 PS
+Audi A6 2000-2005 1896 ccm, 85 KW, 115 PS
+Audi A6 2000-2005 2496 ccm, 132 KW, 180 PS
+Audi A6 2001-2004 2976 ccm, 160 KW, 218 PS
+Audi A6 2001-2005 1896 ccm, 96 KW, 130 PS
+Audi A6 2001-2005 1984 ccm, 96 KW, 130 PS
+Audi A6 2001-2005 2393 ccm, 125 KW, 170 PS
+Audi A6 2001-2005 2496 ccm, 114 KW, 155 PS
+Audi A6 2001-2005 2671 ccm, 184 KW, 250 PS
+Audi A6 2001-2005 2976 ccm, 162 KW, 220 PS
+Audi A6 2002-2005 2496 ccm, 120 KW, 163 PS
+Audi A6 2002-2005 4172 ccm, 331 KW, 450 PS
+Audi A6 Avant 1997-2000 2771 ccm, 132 KW, 180 PS
+Audi A6 Avant 1997-2005 1781 ccm, 110 KW, 150 PS
+Audi A6 Avant 1997-2005 1781 ccm, 132 KW, 180 PS
+Audi A6 Avant 1997-2005 1781 ccm, 92 KW, 125 PS
+Audi A6 Avant 1997-2005 2393 ccm, 115 KW, 156 PS
+Audi A6 Avant 1997-2005 2393 ccm, 120 KW, 163 PS
+Audi A6 Avant 1997-2005 2393 ccm, 121 KW, 165 PS
+Audi A6 Avant 1997-2005 2496 ccm, 110 KW, 150 PS
+Audi A6 Avant 1997-2005 2671 ccm, 169 KW, 230 PS
+Audi A6 Avant 1997-2005 2771 ccm, 142 KW, 193 PS
+Audi A6 Avant 1998-2001 1896 ccm, 81 KW, 110 PS
+Audi A6 Avant 1998-2005 2393 ccm, 100 KW, 136 PS
+Audi A6 Avant 1998-2005 4172 ccm, 220 KW, 299 PS
+Audi A6 Avant 1999-2005 2771 ccm, 140 KW, 190 PS
+Audi A6 Avant 1999-2005 3697 ccm, 191 KW, 260 PS
+Audi A6 Avant 1999-2005 4172 ccm, 250 KW, 340 PS
+Audi A6 Avant 2000-2005 1896 ccm, 85 KW, 115 PS
+Audi A6 Avant 2000-2005 2496 ccm, 132 KW, 180 PS
+Audi A6 Avant 2001-2005 1896 ccm, 96 KW, 130 PS
+Audi A6 Avant 2001-2005 1984 ccm, 96 KW, 130 PS
+Audi A6 Avant 2001-2005 2393 ccm, 125 KW, 170 PS
+Audi A6 Avant 2001-2005 2496 ccm, 114 KW, 155 PS
+Audi A6 Avant 2001-2005 2671 ccm, 184 KW, 250 PS
+Audi A6 Avant 2001-2005 2976 ccm, 162 KW, 220 PS
+Audi A6 Avant 2002-2005 2496 ccm, 120 KW, 163 PS
+Audi A6 Avant 2002-2005 4172 ccm, 331 KW, 450 PS
+Audi A6 Avant 2004-2005 4172 ccm, 353 KW, 480 PS
+Audi Allroad 2000-2005 2496 ccm, 132 KW, 180 PS
+Audi Allroad 2000-2005 2671 ccm, 184 KW, 250 PS
+Audi Allroad 2002-2005 4163 ccm, 220 KW, 299 PS
+Audi Allroad 2003-2005 2496 ccm, 120 KW, 163 PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>{"page": 5, "market_place_id": "EBAY-DE", "item_id": "391525907148", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Seat Cordoba 2002-2009
 Seat Ibiza III 2002-2009
@@ -1579,7 +1766,7 @@
 VW Polo Stufenheck 2003-2012</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Seat Cordoba 2002-2005 1422 ccm, 55 KW, 75 PS
 Seat Cordoba 2002-2006 1198 ccm, 47 KW, 64 PS
@@ -1666,326 +1853,92 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{"page": 5, "market_place_id": "EBAY-DE", "item_id": "391525907148", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Seat Cordoba 2002-2009
-Seat Ibiza III 2002-2009
-Skoda Fabia I 1999-2007
-Skoda Fabia I Combi 2000-2007
-Skoda Fabia I Stufenheck 1999-2007
-VW Polo 2001-2009
-VW Polo Stufenheck 2003-2012</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Seat Cordoba 2002-2005 1422 ccm, 55 KW, 75 PS
-Seat Cordoba 2002-2006 1198 ccm, 47 KW, 64 PS
-Seat Cordoba 2002-2007 1390 ccm, 55 KW, 75 PS
-Seat Cordoba 2002-2009 1390 ccm, 74 KW, 100 PS
-Seat Cordoba 2002-2009 1896 ccm, 47 KW, 64 PS
-Seat Cordoba 2002-2009 1896 ccm, 74 KW, 100 PS
-Seat Cordoba 2002-2009 1896 ccm, 96 KW, 131 PS
-Seat Cordoba 2002-2009 1984 ccm, 85 KW, 115 PS
-Seat Cordoba 2003-2009 1598 ccm, 74 KW, 101 PS
-Seat Cordoba 2005-2009 1422 ccm, 51 KW, 70 PS
-Seat Cordoba 2005-2009 1422 ccm, 59 KW, 80 PS
-Seat Cordoba 2006-2009 1198 ccm, 51 KW, 70 PS
-Seat Cordoba 2006-2009 1390 ccm, 63 KW, 86 PS
-Seat Cordoba 2006-2009 1598 ccm, 77 KW, 105 PS
-Seat Ibiza III 2002-2005 1422 ccm, 55 KW, 75 PS
-Seat Ibiza III 2002-2005 1896 ccm, 47 KW, 64 PS
-Seat Ibiza III 2002-2006 1198 ccm, 47 KW, 64 PS
-Seat Ibiza III 2002-2007 1390 ccm, 55 KW, 75 PS
-Seat Ibiza III 2002-2009 1390 ccm, 74 KW, 100 PS
-Seat Ibiza III 2002-2009 1896 ccm, 74 KW, 100 PS
-Seat Ibiza III 2002-2009 1896 ccm, 96 KW, 131 PS
-Seat Ibiza III 2002-2009 1984 ccm, 85 KW, 116 PS
-Seat Ibiza III 2003-2008 1781 ccm, 110 KW, 150 PS
-Seat Ibiza III 2003-2009 1598 ccm, 74 KW, 101 PS
-Seat Ibiza III 2004-2008 1781 ccm, 132 KW, 180 PS
-Seat Ibiza III 2004-2008 1896 ccm, 118 KW, 160 PS
-Seat Ibiza III 2005-2009 1422 ccm, 51 KW, 70 PS
-Seat Ibiza III 2005-2009 1422 ccm, 59 KW, 80 PS
-Seat Ibiza III 2006-2009 1198 ccm, 51 KW, 70 PS
-Seat Ibiza III 2006-2009 1390 ccm, 63 KW, 86 PS
-Seat Ibiza III 2006-2009 1598 ccm, 77 KW, 105 PS
-Seat Ibiza III 2007-2008 1198 ccm, 44 KW, 60 PS
-Skoda Fabia I 1999-2002 996 ccm, 37 KW, 50 PS
-Skoda Fabia I 1999-2003 1397 ccm, 50 KW, 68 PS
-Skoda Fabia I 2000-2002 1397 ccm, 44 KW, 60 PS
-Skoda Fabia I 2001-2007 1198 ccm, 40 KW, 54 PS
-Skoda Fabia I Combi 2000-2003 1397 ccm, 44 KW, 60 PS
-Skoda Fabia I Combi 2000-2003 1397 ccm, 50 KW, 68 PS
-Skoda Fabia I Combi 2000-2007 1390 ccm, 55 KW, 75 PS
-Skoda Fabia I Combi 2000-2007 1390 ccm, 74 KW, 100 PS
-Skoda Fabia I Combi 2000-2007 1896 ccm, 47 KW, 64 PS
-Skoda Fabia I Combi 2000-2007 1896 ccm, 74 KW, 100 PS
-Skoda Fabia I Combi 2000-2007 1984 ccm, 85 KW, 116 PS
-Skoda Fabia I Combi 2001-2007 1198 ccm, 40 KW, 54 PS
-Skoda Fabia I Combi 2003-2007 1198 ccm, 47 KW, 64 PS
-Skoda Fabia I Combi 2003-2007 1422 ccm, 55 KW, 75 PS
-Skoda Fabia I Combi 2005-2007 1422 ccm, 51 KW, 70 PS
-Skoda Fabia I Combi 2005-2007 1422 ccm, 59 KW, 80 PS
-Skoda Fabia I Combi 2006-2007 1390 ccm, 59 KW, 80 PS
-Skoda Fabia I Stufenheck 1999-2007 1390 ccm, 55 KW, 75 PS
-Skoda Fabia I Stufenheck 1999-2007 1390 ccm, 74 KW, 100 PS
-Skoda Fabia I Stufenheck 1999-2007 1896 ccm, 47 KW, 64 PS
-Skoda Fabia I Stufenheck 1999-2007 1984 ccm, 85 KW, 116 PS
-Skoda Fabia I Stufenheck 2000-2002 1397 ccm, 44 KW, 60 PS
-Skoda Fabia I Stufenheck 2000-2007 1896 ccm, 74 KW, 100 PS
-Skoda Fabia I Stufenheck 2001-2003 1397 ccm, 50 KW, 68 PS
-Skoda Fabia I Stufenheck 2001-2007 1198 ccm, 40 KW, 54 PS
-Skoda Fabia I Stufenheck 2003-2007 1198 ccm, 47 KW, 64 PS
-Skoda Fabia I Stufenheck 2003-2007 1422 ccm, 55 KW, 75 PS
-Skoda Fabia I Stufenheck 2005-2007 1422 ccm, 51 KW, 70 PS
-Skoda Fabia I Stufenheck 2005-2007 1422 ccm, 59 KW, 80 PS
-Skoda Fabia I Stufenheck 2006-2007 1390 ccm, 59 KW, 80 PS
-VW Polo 2001-2005 1422 ccm, 55 KW, 75 PS
-VW Polo 2001-2007 1198 ccm, 47 KW, 64 PS
-VW Polo 2001-2008 1390 ccm, 55 KW, 75 PS
-VW Polo 2001-2008 1390 ccm, 74 KW, 101 PS
-VW Polo 2001-2009 1896 ccm, 47 KW, 64 PS
-VW Polo 2001-2009 1896 ccm, 74 KW, 101 PS
-VW Polo 2002-2006 1390 ccm, 63 KW, 86 PS
-VW Polo 2002-2007 1198 ccm, 40 KW, 54 PS
-VW Polo 2003-2009 1896 ccm, 96 KW, 130 PS
-VW Polo 2005-2009 1422 ccm, 51 KW, 70 PS
-VW Polo 2005-2009 1422 ccm, 59 KW, 80 PS
-VW Polo 2005-2009 1781 ccm, 110 KW, 150 PS
-VW Polo 2006-2009 1390 ccm, 59 KW, 80 PS
-VW Polo 2006-2009 1598 ccm, 77 KW, 105 PS
-VW Polo 2006-2009 1781 ccm, 132 KW, 180 PS
-VW Polo 2007-2009 1198 ccm, 44 KW, 60 PS
-VW Polo 2007-2009 1198 ccm, 51 KW, 69 PS
-VW Polo Stufenheck 2003-2005 1390 ccm, 74 KW, 101 PS
-VW Polo Stufenheck 2003-2005 1422 ccm, 55 KW, 75 PS
-VW Polo Stufenheck 2006-2012 1390 ccm, 55 KW, 75 PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{"page": 6, "market_place_id": "EBAY-DE", "item_id": "371434593545", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Audi Q7 2006-2015
-Skoda Superb II 2008-2015
-VW Passat 2005-2014
-VW Passat Alltrack 2012-2014
-VW Passat Variant 2005-2015
-VW Tiguan 2007-2018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Audi Q7 2006-2008 2967 ccm, 171 KW, 233 PS
-Audi Q7 2006-2010 2967 ccm, 155 KW, 211 PS
-Audi Q7 2006-2010 3597 ccm, 206 KW, 280 PS
-Audi Q7 2006-2010 4163 ccm, 257 KW, 350 PS
-Audi Q7 2007-2009 4134 ccm, 240 KW, 326 PS
-Audi Q7 2007-2015 2967 ccm, 176 KW, 240 PS
-Audi Q7 2008-2014 5934 ccm, 368 KW, 500 PS
-Skoda Superb II 2008-2010 1896 ccm, 77 KW, 105 PS
-Skoda Superb II 2008-2015 1390 ccm, 92 KW, 125 PS
-Skoda Superb II 2008-2015 1798 ccm, 118 KW, 160 PS
-Skoda Superb II 2008-2015 1968 ccm, 103 KW, 140 PS
-Skoda Superb II 2008-2015 1968 ccm, 125 KW, 170 PS
-Skoda Superb II 2008-2015 3597 ccm, 191 KW, 260 PS
-Skoda Superb II 2009-2015 1798 ccm, 112 KW, 152 PS
-VW Passat 2005-2006 1968 ccm, 90 KW, 122 PS
-VW Passat 2005-2007 1968 ccm, 88 KW, 120 PS
-VW Passat 2005-2008 1598 ccm, 85 KW, 115 PS
-VW Passat 2005-2009 1968 ccm, 120 KW, 163 PS
-VW Passat 2005-2010 1595 ccm, 75 KW, 102 PS
-VW Passat 2005-2010 1896 ccm, 77 KW, 105 PS
-VW Passat 2005-2010 1984 ccm, 110 KW, 150 PS
-VW Passat 2005-2010 1984 ccm, 147 KW, 200 PS
-VW Passat 2005-2010 3168 ccm, 184 KW, 250 PS
-VW Passat 2005-2014 1968 ccm, 100 KW, 136 PS
-VW Passat 2005-2014 1968 ccm, 103 KW, 140 PS
-VW Passat 2005-2014 1968 ccm, 125 KW, 170 PS
-VW Passat 2007-2014 1390 ccm, 90 KW, 122 PS
-VW Passat 2007-2014 1798 ccm, 118 KW, 160 PS
-VW Passat 2007-2014 3597 ccm, 220 KW, 300 PS
-VW Passat 2008-2010 1968 ccm, 81 KW, 110 PS
-VW Passat 2009-2010 1968 ccm, 105 KW, 143 PS
-VW Passat 2009-2014 1390 ccm, 110 KW, 150 PS
-VW Passat 2009-2014 1598 ccm, 77 KW, 105 PS
-VW Passat 2010-2014 1390 ccm, 118 KW, 160 PS
-VW Passat 2010-2014 1984 ccm, 155 KW, 210 PS
-VW Passat 2012-2014 1968 ccm, 130 KW, 177 PS
-VW Passat Alltrack 2012-2014 1798 ccm, 112 KW, 152 PS
-VW Passat Alltrack 2012-2014 1798 ccm, 118 KW, 160 PS
-VW Passat Alltrack 2012-2014 1968 ccm, 103 KW, 140 PS
-VW Passat Alltrack 2012-2014 1968 ccm, 125 KW, 170 PS
-VW Passat Alltrack 2012-2014 1984 ccm, 155 KW, 210 PS
-VW Passat Alltrack 2013-2014 1968 ccm, 130 KW, 177 PS
-VW Passat Variant 2005-2006 1968 ccm, 90 KW, 122 PS
-VW Passat Variant 2005-2007 1968 ccm, 88 KW, 120 PS
-VW Passat Variant 2005-2008 1598 ccm, 85 KW, 115 PS
-VW Passat Variant 2005-2009 1968 ccm, 120 KW, 163 PS
-VW Passat Variant 2005-2010 1595 ccm, 75 KW, 102 PS
-VW Passat Variant 2005-2010 1896 ccm, 77 KW, 105 PS
-VW Passat Variant 2005-2010 1984 ccm, 110 KW, 150 PS
-VW Passat Variant 2005-2010 1984 ccm, 147 KW, 200 PS
-VW Passat Variant 2005-2010 3168 ccm, 184 KW, 250 PS
-VW Passat Variant 2005-2014 1968 ccm, 100 KW, 136 PS
-VW Passat Variant 2005-2014 1968 ccm, 103 KW, 140 PS
-VW Passat Variant 2005-2014 1968 ccm, 125 KW, 170 PS
-VW Passat Variant 2007-2014 1390 ccm, 90 KW, 122 PS
-VW Passat Variant 2007-2014 1798 ccm, 118 KW, 160 PS
-VW Passat Variant 2007-2014 3597 ccm, 220 KW, 300 PS
-VW Passat Variant 2008-2010 1968 ccm, 81 KW, 110 PS
-VW Passat Variant 2009-2010 1968 ccm, 105 KW, 143 PS
-VW Passat Variant 2009-2014 1390 ccm, 110 KW, 150 PS
-VW Passat Variant 2009-2014 1598 ccm, 77 KW, 105 PS
-VW Passat Variant 2010-2014 1390 ccm, 118 KW, 160 PS
-VW Passat Variant 2010-2015 1984 ccm, 155 KW, 210 PS
-VW Passat Variant 2012-2014 1968 ccm, 130 KW, 177 PS
-VW Tiguan 2007-2018 1390 ccm, 110 KW, 150 PS
-VW Tiguan 2007-2018 1968 ccm, 100 KW, 136 PS
-VW Tiguan 2007-2018 1968 ccm, 103 KW, 140 PS
-VW Tiguan 2007-2018 1968 ccm, 125 KW, 170 PS
-VW Tiguan 2007-2018 1984 ccm, 125 KW, 170 PS
-VW Tiguan 2007-2018 1984 ccm, 147 KW, 200 PS
-VW Tiguan 2008-2009 1968 ccm, 120 KW, 163 PS</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{"page": 6, "market_place_id": "EBAY-DE", "item_id": "391525907146", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
+          <t>{"page": 6, "market_place_id": "EBAY-DE", "item_id": "302355976898", "seller_name": "atp-autoteile", "category_id": "33648.50459", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Skoda Fabia I 1999-2008
-Skoda Fabia I Combi 2000-2007
-Skoda Fabia I Praktik 2000-2007
-Skoda Fabia I Stufenheck 1999-2007
-VW Multivan V 2003-2015
-VW Polo 2001-2009
-VW Transporter V Bus 2003-2015
-VW Transporter V Kasten 2003-2015
-VW Transporter V Pritsche/Fahrgestell 2003-2013</t>
+          <t>VW Bora 1998-2013
+VW Bora Variant 1999-2005
+VW Golf IV 1997-2005
+VW Golf IV Variant 1999-2006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Skoda Fabia I 1999-2002 996 ccm, 37 KW, 50 PS
-Skoda Fabia I 1999-2003 1397 ccm, 50 KW, 68 PS
-Skoda Fabia I 1999-2008 1390 ccm, 55 KW, 75 PS
-Skoda Fabia I 1999-2008 1390 ccm, 74 KW, 100 PS
-Skoda Fabia I 1999-2008 1896 ccm, 47 KW, 64 PS
-Skoda Fabia I 1999-2008 1984 ccm, 85 KW, 116 PS
-Skoda Fabia I 2000-2002 1397 ccm, 44 KW, 60 PS
-Skoda Fabia I 2000-2008 1896 ccm, 74 KW, 100 PS
-Skoda Fabia I 2001-2007 1198 ccm, 40 KW, 54 PS
-Skoda Fabia I 2003-2008 1198 ccm, 47 KW, 64 PS
-Skoda Fabia I 2003-2008 1422 ccm, 55 KW, 75 PS
-Skoda Fabia I 2003-2008 1896 ccm, 96 KW, 130 PS
-Skoda Fabia I 2005-2008 1422 ccm, 51 KW, 70 PS
-Skoda Fabia I 2005-2008 1422 ccm, 59 KW, 80 PS
-Skoda Fabia I Combi 2000-2003 1397 ccm, 44 KW, 60 PS
-Skoda Fabia I Combi 2000-2003 1397 ccm, 50 KW, 68 PS
-Skoda Fabia I Combi 2000-2007 1390 ccm, 55 KW, 75 PS
-Skoda Fabia I Combi 2000-2007 1390 ccm, 74 KW, 100 PS
-Skoda Fabia I Combi 2000-2007 1896 ccm, 47 KW, 64 PS
-Skoda Fabia I Combi 2000-2007 1896 ccm, 74 KW, 100 PS
-Skoda Fabia I Combi 2000-2007 1984 ccm, 85 KW, 116 PS
-Skoda Fabia I Combi 2001-2007 1198 ccm, 40 KW, 54 PS
-Skoda Fabia I Combi 2003-2007 1198 ccm, 47 KW, 64 PS
-Skoda Fabia I Combi 2003-2007 1422 ccm, 55 KW, 75 PS
-Skoda Fabia I Combi 2005-2007 1422 ccm, 51 KW, 70 PS
-Skoda Fabia I Combi 2005-2007 1422 ccm, 59 KW, 80 PS
-Skoda Fabia I Combi 2006-2007 1390 ccm, 59 KW, 80 PS
-Skoda Fabia I Praktik 2000-2007 1896 ccm, 74 KW, 101 PS
-Skoda Fabia I Praktik 2001-2003 1397 ccm, 50 KW, 68 PS
-Skoda Fabia I Praktik 2001-2007 1198 ccm, 40 KW, 54 PS
-Skoda Fabia I Praktik 2001-2007 1896 ccm, 47 KW, 64 PS
-Skoda Fabia I Praktik 2003-2007 1198 ccm, 47 KW, 64 PS
-Skoda Fabia I Praktik 2004-2005 1422 ccm, 55 KW, 75 PS
-Skoda Fabia I Praktik 2004-2007 1390 ccm, 55 KW, 75 PS
-Skoda Fabia I Praktik 2005-2007 1422 ccm, 51 KW, 70 PS
-Skoda Fabia I Stufenheck 1999-2007 1390 ccm, 55 KW, 75 PS
-Skoda Fabia I Stufenheck 1999-2007 1390 ccm, 74 KW, 100 PS
-Skoda Fabia I Stufenheck 1999-2007 1896 ccm, 47 KW, 64 PS
-Skoda Fabia I Stufenheck 1999-2007 1984 ccm, 85 KW, 116 PS
-Skoda Fabia I Stufenheck 2000-2002 1397 ccm, 44 KW, 60 PS
-Skoda Fabia I Stufenheck 2000-2007 1896 ccm, 74 KW, 100 PS
-Skoda Fabia I Stufenheck 2001-2003 1397 ccm, 50 KW, 68 PS
-Skoda Fabia I Stufenheck 2001-2007 1198 ccm, 40 KW, 54 PS
-Skoda Fabia I Stufenheck 2003-2007 1198 ccm, 47 KW, 64 PS
-Skoda Fabia I Stufenheck 2003-2007 1422 ccm, 55 KW, 75 PS
-Skoda Fabia I Stufenheck 2005-2007 1422 ccm, 51 KW, 70 PS
-Skoda Fabia I Stufenheck 2005-2007 1422 ccm, 59 KW, 80 PS
-Skoda Fabia I Stufenheck 2006-2007 1390 ccm, 59 KW, 80 PS
-VW Multivan V 2003-2009 1896 ccm, 63 KW, 85 PS
-VW Multivan V 2003-2009 1896 ccm, 77 KW, 105 PS
-VW Multivan V 2003-2009 2461 ccm, 120 KW, 163 PS
-VW Multivan V 2003-2009 2461 ccm, 128 KW, 174 PS
-VW Multivan V 2003-2009 2461 ccm, 96 KW, 130 PS
-VW Multivan V 2003-2015 1984 ccm, 85 KW, 115 PS
-VW Multivan V 2004 3189 ccm, 170 KW, 231 PS
-VW Multivan V 2004-2009 3189 ccm, 173 KW, 235 PS
-VW Multivan V 2006-2009 1896 ccm, 62 KW, 84 PS
-VW Multivan V 2006-2009 1896 ccm, 75 KW, 102 PS
-VW Polo 2001-2007 1198 ccm, 47 KW, 64 PS
-VW Polo 2001-2008 1390 ccm, 55 KW, 75 PS
-VW Polo 2001-2008 1390 ccm, 74 KW, 101 PS
-VW Polo 2001-2009 1896 ccm, 47 KW, 64 PS
-VW Polo 2001-2009 1896 ccm, 74 KW, 101 PS
-VW Polo 2002-2006 1390 ccm, 63 KW, 86 PS
-VW Polo 2002-2007 1198 ccm, 40 KW, 54 PS
-VW Polo 2003-2009 1896 ccm, 96 KW, 130 PS
-VW Polo 2005-2009 1422 ccm, 51 KW, 70 PS
-VW Polo 2005-2009 1422 ccm, 59 KW, 80 PS
-VW Polo 2005-2009 1781 ccm, 110 KW, 150 PS
-VW Polo 2006-2009 1390 ccm, 59 KW, 80 PS
-VW Polo 2006-2009 1390 ccm, 60 KW, 82 PS
-VW Polo 2006-2009 1598 ccm, 77 KW, 105 PS
-VW Polo 2006-2009 1781 ccm, 132 KW, 180 PS
-VW Polo 2007-2009 1198 ccm, 44 KW, 60 PS
-VW Polo 2007-2009 1198 ccm, 51 KW, 69 PS
-VW Transporter V Bus 2003-2009 1896 ccm, 63 KW, 85 PS
-VW Transporter V Bus 2003-2009 1896 ccm, 77 KW, 105 PS
-VW Transporter V Bus 2003-2009 2461 ccm, 120 KW, 163 PS
-VW Transporter V Bus 2003-2009 2461 ccm, 128 KW, 174 PS
-VW Transporter V Bus 2003-2009 2461 ccm, 96 KW, 130 PS
-VW Transporter V Bus 2003-2009 3189 ccm, 173 KW, 235 PS
-VW Transporter V Bus 2003-2015 1984 ccm, 85 KW, 115 PS
-VW Transporter V Bus 2004 3189 ccm, 170 KW, 231 PS
-VW Transporter V Bus 2006-2009 1896 ccm, 62 KW, 84 PS
-VW Transporter V Bus 2006-2009 1896 ccm, 75 KW, 102 PS
-VW Transporter V Kasten 2003-2004 3189 ccm, 170 KW, 231 PS
-VW Transporter V Kasten 2003-2009 1896 ccm, 63 KW, 85 PS
-VW Transporter V Kasten 2003-2009 1896 ccm, 77 KW, 105 PS
-VW Transporter V Kasten 2003-2009 2461 ccm, 128 KW, 174 PS
-VW Transporter V Kasten 2003-2009 2461 ccm, 96 KW, 130 PS
-VW Transporter V Kasten 2003-2009 3189 ccm, 173 KW, 235 PS
-VW Transporter V Kasten 2003-2015 1984 ccm, 85 KW, 115 PS
-VW Transporter V Kasten 2006-2009 1896 ccm, 62 KW, 84 PS
-VW Transporter V Kasten 2006-2009 1896 ccm, 75 KW, 102 PS
-VW Transporter V Pritsche/Fahrgestell 2003-2009 1896 ccm, 63 KW, 85 PS
-VW Transporter V Pritsche/Fahrgestell 2003-2009 1896 ccm, 77 KW, 105 PS
-VW Transporter V Pritsche/Fahrgestell 2003-2009 2461 ccm, 128 KW, 174 PS
-VW Transporter V Pritsche/Fahrgestell 2003-2009 2461 ccm, 96 KW, 130 PS
-VW Transporter V Pritsche/Fahrgestell 2003-2009 3189 ccm, 170 KW, 231 PS
-VW Transporter V Pritsche/Fahrgestell 2003-2009 3189 ccm, 173 KW, 235 PS
-VW Transporter V Pritsche/Fahrgestell 2003-2013 1984 ccm, 85 KW, 115 PS
-VW Transporter V Pritsche/Fahrgestell 2006-2009 1896 ccm, 62 KW, 84 PS
-VW Transporter V Pritsche/Fahrgestell 2006-2009 1896 ccm, 75 KW, 102 PS</t>
+          <t>VW Bora 1998-2000 2324 ccm, 110 KW, 150 PS
+VW Bora 1998-2001 1896 ccm, 81 KW, 110 PS
+VW Bora 1998-2002 1896 ccm, 85 KW, 115 PS
+VW Bora 1998-2005 1595 ccm, 74 KW, 101 PS
+VW Bora 1998-2005 1781 ccm, 92 KW, 125 PS
+VW Bora 1998-2005 1896 ccm, 50 KW, 68 PS
+VW Bora 1998-2005 1896 ccm, 66 KW, 90 PS
+VW Bora 1998-2013 1984 ccm, 85 KW, 115 PS
+VW Bora 1999-2005 2792 ccm, 150 KW, 204 PS
+VW Bora 2000-2005 1390 ccm, 55 KW, 75 PS
+VW Bora 2000-2005 1595 ccm, 75 KW, 102 PS
+VW Bora 2000-2005 1598 ccm, 77 KW, 105 PS
+VW Bora 2000-2005 1781 ccm, 110 KW, 150 PS
+VW Bora 2000-2005 1896 ccm, 110 KW, 150 PS
+VW Bora 2000-2005 1896 ccm, 74 KW, 101 PS
+VW Bora 2000-2005 1896 ccm, 96 KW, 130 PS
+VW Bora 2000-2005 2324 ccm, 125 KW, 170 PS
+VW Bora 2002-2005 1598 ccm, 81 KW, 110 PS
+VW Bora 2002-2005 1781 ccm, 132 KW, 180 PS
+VW Bora Variant 1999-2000 2324 ccm, 110 KW, 150 PS
+VW Bora Variant 1999-2001 1896 ccm, 81 KW, 110 PS
+VW Bora Variant 1999-2001 1896 ccm, 85 KW, 115 PS
+VW Bora Variant 1999-2005 1595 ccm, 74 KW, 100 PS
+VW Bora Variant 1999-2005 1781 ccm, 92 KW, 125 PS
+VW Bora Variant 1999-2005 1984 ccm, 85 KW, 115 PS
+VW Bora Variant 1999-2005 2792 ccm, 150 KW, 204 PS
+VW Bora Variant 2000-2005 1595 ccm, 75 KW, 102 PS
+VW Bora Variant 2000-2005 1598 ccm, 77 KW, 105 PS
+VW Bora Variant 2000-2005 1781 ccm, 110 KW, 150 PS
+VW Bora Variant 2000-2005 1896 ccm, 74 KW, 101 PS
+VW Bora Variant 2000-2005 1896 ccm, 96 KW, 130 PS
+VW Bora Variant 2000-2005 2324 ccm, 125 KW, 170 PS
+VW Bora Variant 2001-2005 1390 ccm, 55 KW, 75 PS
+VW Bora Variant 2001-2005 1896 ccm, 110 KW, 150 PS
+VW Bora Variant 2002-2005 1598 ccm, 81 KW, 110 PS
+VW Bora Variant 2002-2005 1781 ccm, 132 KW, 180 PS
+VW Bora Variant 2004-2005 1896 ccm, 66 KW, 90 PS
+VW Golf IV 1997-2000 2324 ccm, 110 KW, 150 PS
+VW Golf IV 1997-2004 1390 ccm, 55 KW, 75 PS
+VW Golf IV 1997-2004 1595 ccm, 74 KW, 100 PS
+VW Golf IV 1997-2004 1896 ccm, 66 KW, 90 PS
+VW Golf IV 1997-2004 1896 ccm, 81 KW, 110 PS
+VW Golf IV 1997-2005 1781 ccm, 110 KW, 150 PS
+VW Golf IV 1997-2005 1781 ccm, 92 KW, 125 PS
+VW Golf IV 1997-2005 1896 ccm, 50 KW, 68 PS
+VW Golf IV 1998-2001 1896 ccm, 85 KW, 115 PS
+VW Golf IV 1998-2005 1984 ccm, 85 KW, 115 PS
+VW Golf IV 1999-2005 2792 ccm, 150 KW, 204 PS
+VW Golf IV 2000-2005 1595 ccm, 75 KW, 102 PS
+VW Golf IV 2000-2005 1598 ccm, 77 KW, 105 PS
+VW Golf IV 2000-2005 1896 ccm, 110 KW, 150 PS
+VW Golf IV 2000-2005 1896 ccm, 74 KW, 101 PS
+VW Golf IV 2000-2005 1896 ccm, 96 KW, 130 PS
+VW Golf IV 2000-2005 2324 ccm, 125 KW, 170 PS
+VW Golf IV Variant 1999-2001 1896 ccm, 81 KW, 110 PS
+VW Golf IV Variant 1999-2001 1896 ccm, 85 KW, 115 PS
+VW Golf IV Variant 1999-2002 1595 ccm, 74 KW, 101 PS
+VW Golf IV Variant 1999-2006 1390 ccm, 55 KW, 75 PS
+VW Golf IV Variant 1999-2006 1781 ccm, 92 KW, 125 PS
+VW Golf IV Variant 1999-2006 1896 ccm, 50 KW, 68 PS
+VW Golf IV Variant 1999-2006 1896 ccm, 66 KW, 90 PS
+VW Golf IV Variant 1999-2006 1984 ccm, 85 KW, 115 PS
+VW Golf IV Variant 1999-2006 2324 ccm, 110 KW, 150 PS
+VW Golf IV Variant 1999-2006 2792 ccm, 150 KW, 204 PS
+VW Golf IV Variant 2000-2006 1595 ccm, 75 KW, 102 PS
+VW Golf IV Variant 2000-2006 1598 ccm, 77 KW, 105 PS
+VW Golf IV Variant 2000-2006 1781 ccm, 110 KW, 150 PS
+VW Golf IV Variant 2000-2006 1896 ccm, 74 KW, 101 PS
+VW Golf IV Variant 2000-2006 1896 ccm, 96 KW, 130 PS
+VW Golf IV Variant 2000-2006 2324 ccm, 125 KW, 170 PS</t>
         </is>
       </c>
     </row>
